--- a/redo-figures.xlsx
+++ b/redo-figures.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eptmp/Documents/GitHub/CVDMVMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F627D411-F89F-764D-A858-AF0969AD965D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAE5DA9-2F59-AB44-864C-11FBE227D6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3360" windowWidth="20560" windowHeight="15420" xr2:uid="{BC31350E-D241-C943-934F-2A7C91B8C96E}"/>
+    <workbookView xWindow="1380" yWindow="3360" windowWidth="20560" windowHeight="15420" activeTab="1" xr2:uid="{BC31350E-D241-C943-934F-2A7C91B8C96E}"/>
   </bookViews>
   <sheets>
     <sheet name="fig6" sheetId="1" r:id="rId1"/>
+    <sheet name="fig5" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="27">
   <si>
     <t>outcome</t>
   </si>
@@ -96,6 +97,27 @@
   </si>
   <si>
     <t>Creatinine</t>
+  </si>
+  <si>
+    <t>Outcome</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>CHD</t>
+  </si>
+  <si>
+    <t>IS (small vessel)</t>
+  </si>
+  <si>
+    <t>IS (large artery)</t>
+  </si>
+  <si>
+    <t>Cardioembolic stroke</t>
+  </si>
+  <si>
+    <t>Estimator</t>
   </si>
 </sst>
 </file>
@@ -469,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F7389C-0008-D342-A4C4-DE233C464330}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -787,4 +809,587 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3278962C-9AF3-F046-A4FE-F848C41920AB}">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1.71</v>
+      </c>
+      <c r="E2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1.43</v>
+      </c>
+      <c r="E3">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>0.77</v>
+      </c>
+      <c r="E4">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.79</v>
+      </c>
+      <c r="E5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1.3</v>
+      </c>
+      <c r="E6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1.76</v>
+      </c>
+      <c r="E8">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>1.75</v>
+      </c>
+      <c r="E9">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1.03</v>
+      </c>
+      <c r="E10">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.94</v>
+      </c>
+      <c r="E11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>0.84</v>
+      </c>
+      <c r="E12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0.81</v>
+      </c>
+      <c r="E13">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E14">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1.01</v>
+      </c>
+      <c r="E15">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>1.64</v>
+      </c>
+      <c r="E16">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1.75</v>
+      </c>
+      <c r="E17">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1.47</v>
+      </c>
+      <c r="E18">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>0.83</v>
+      </c>
+      <c r="E20">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0.79</v>
+      </c>
+      <c r="E21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1.25</v>
+      </c>
+      <c r="E22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>1.04</v>
+      </c>
+      <c r="E23">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>2.86</v>
+      </c>
+      <c r="E24">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>2.34</v>
+      </c>
+      <c r="E25">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1.04</v>
+      </c>
+      <c r="E26">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>0.97</v>
+      </c>
+      <c r="E27">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>0.91</v>
+      </c>
+      <c r="E28">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0.87</v>
+      </c>
+      <c r="E29">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>0.96</v>
+      </c>
+      <c r="E30">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>0.88</v>
+      </c>
+      <c r="E31">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>1.3</v>
+      </c>
+      <c r="E32">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>1.3</v>
+      </c>
+      <c r="E33">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/redo-figures.xlsx
+++ b/redo-figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eptmp/Documents/GitHub/CVDMVMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAE5DA9-2F59-AB44-864C-11FBE227D6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885CAF7-8B7B-5A4B-BD82-D7224A4344E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="3360" windowWidth="20560" windowHeight="15420" activeTab="1" xr2:uid="{BC31350E-D241-C943-934F-2A7C91B8C96E}"/>
   </bookViews>
@@ -816,7 +816,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -861,6 +861,9 @@
       <c r="E2">
         <v>1.5</v>
       </c>
+      <c r="F2">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -878,6 +881,9 @@
       <c r="E3">
         <v>1.35</v>
       </c>
+      <c r="F3">
+        <v>1.51</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -895,6 +901,9 @@
       <c r="E4">
         <v>0.72</v>
       </c>
+      <c r="F4">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -912,6 +921,9 @@
       <c r="E5">
         <v>0.7</v>
       </c>
+      <c r="F5">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -929,6 +941,9 @@
       <c r="E6">
         <v>1.2</v>
       </c>
+      <c r="F6">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -946,6 +961,9 @@
       <c r="E7">
         <v>1.03</v>
       </c>
+      <c r="F7">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -963,6 +981,9 @@
       <c r="E8">
         <v>1.48</v>
       </c>
+      <c r="F8">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -980,6 +1001,9 @@
       <c r="E9">
         <v>1.66</v>
       </c>
+      <c r="F9">
+        <v>1.84</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -997,6 +1021,9 @@
       <c r="E10">
         <v>0.87</v>
       </c>
+      <c r="F10">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1014,6 +1041,9 @@
       <c r="E11">
         <v>0.8</v>
       </c>
+      <c r="F11">
+        <v>1.08</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1031,6 +1061,9 @@
       <c r="E12">
         <v>0.75</v>
       </c>
+      <c r="F12">
+        <v>0.96</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1048,6 +1081,9 @@
       <c r="E13">
         <v>0.64</v>
       </c>
+      <c r="F13">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1065,6 +1101,9 @@
       <c r="E14">
         <v>1.02</v>
       </c>
+      <c r="F14">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1082,6 +1121,9 @@
       <c r="E15">
         <v>0.84</v>
       </c>
+      <c r="F15">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1099,8 +1141,11 @@
       <c r="E16">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1116,8 +1161,11 @@
       <c r="E17">
         <v>1.58</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1133,8 +1181,11 @@
       <c r="E18">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1150,8 +1201,11 @@
       <c r="E19">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1167,8 +1221,11 @@
       <c r="E20">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1184,8 +1241,11 @@
       <c r="E21">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1201,8 +1261,11 @@
       <c r="E22">
         <v>1.0900000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1218,8 +1281,11 @@
       <c r="E23">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1235,8 +1301,11 @@
       <c r="E24">
         <v>2.11</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1252,8 +1321,11 @@
       <c r="E25">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1269,8 +1341,11 @@
       <c r="E26">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1286,8 +1361,11 @@
       <c r="E27">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1303,8 +1381,11 @@
       <c r="E28">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1320,8 +1401,11 @@
       <c r="E29">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1337,8 +1421,11 @@
       <c r="E30">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -1354,8 +1441,11 @@
       <c r="E31">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1371,8 +1461,11 @@
       <c r="E32">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1387,6 +1480,9 @@
       </c>
       <c r="E33">
         <v>1.1499999999999999</v>
+      </c>
+      <c r="F33">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/redo-figures.xlsx
+++ b/redo-figures.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eptmp/Documents/GitHub/CVDMVMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885CAF7-8B7B-5A4B-BD82-D7224A4344E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8CC49-562B-BD44-BF69-9D7CF29AB7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3360" windowWidth="20560" windowHeight="15420" activeTab="1" xr2:uid="{BC31350E-D241-C943-934F-2A7C91B8C96E}"/>
+    <workbookView xWindow="1380" yWindow="3360" windowWidth="20560" windowHeight="15420" activeTab="2" xr2:uid="{BC31350E-D241-C943-934F-2A7C91B8C96E}"/>
   </bookViews>
   <sheets>
     <sheet name="fig6" sheetId="1" r:id="rId1"/>
     <sheet name="fig5" sheetId="2" r:id="rId2"/>
+    <sheet name="fig3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="29">
   <si>
     <t>outcome</t>
   </si>
@@ -118,6 +119,12 @@
   </si>
   <si>
     <t>Estimator</t>
+  </si>
+  <si>
+    <t>Physical activity</t>
+  </si>
+  <si>
+    <t>IS (large vessel)</t>
   </si>
 </sst>
 </file>
@@ -815,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3278962C-9AF3-F046-A4FE-F848C41920AB}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -1488,4 +1495,849 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F490F-9AA7-5D4C-B633-7FA81F50972D}">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>0.71</v>
+      </c>
+      <c r="F2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>1.51</v>
+      </c>
+      <c r="E3">
+        <v>1.41</v>
+      </c>
+      <c r="F3">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1.78</v>
+      </c>
+      <c r="E4">
+        <v>1.54</v>
+      </c>
+      <c r="F4">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1.76</v>
+      </c>
+      <c r="E5">
+        <v>1.48</v>
+      </c>
+      <c r="F5">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1.71</v>
+      </c>
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+      <c r="F6">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0.77</v>
+      </c>
+      <c r="E7">
+        <v>0.72</v>
+      </c>
+      <c r="F7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1.3</v>
+      </c>
+      <c r="E8">
+        <v>1.2</v>
+      </c>
+      <c r="F8">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1.02</v>
+      </c>
+      <c r="E9">
+        <v>0.74</v>
+      </c>
+      <c r="F9">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.05</v>
+      </c>
+      <c r="F10">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1.18</v>
+      </c>
+      <c r="E11">
+        <v>1.01</v>
+      </c>
+      <c r="F11">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>0.69</v>
+      </c>
+      <c r="E12">
+        <v>0.52</v>
+      </c>
+      <c r="F12">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1.35</v>
+      </c>
+      <c r="E13">
+        <v>0.51</v>
+      </c>
+      <c r="F13">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>1.4</v>
+      </c>
+      <c r="E14">
+        <v>0.89</v>
+      </c>
+      <c r="F14">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>0.88</v>
+      </c>
+      <c r="E15">
+        <v>0.68</v>
+      </c>
+      <c r="F15">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.98</v>
+      </c>
+      <c r="F16">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>2.27</v>
+      </c>
+      <c r="E17">
+        <v>1.77</v>
+      </c>
+      <c r="F17">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>1.64</v>
+      </c>
+      <c r="E18">
+        <v>1.24</v>
+      </c>
+      <c r="F18">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>1.03</v>
+      </c>
+      <c r="E19">
+        <v>0.87</v>
+      </c>
+      <c r="F19">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>0.84</v>
+      </c>
+      <c r="E20">
+        <v>0.75</v>
+      </c>
+      <c r="F20">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E21">
+        <v>1.02</v>
+      </c>
+      <c r="F21">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>1.35</v>
+      </c>
+      <c r="E22">
+        <v>0.62</v>
+      </c>
+      <c r="F22">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.97</v>
+      </c>
+      <c r="F23">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>1.35</v>
+      </c>
+      <c r="E24">
+        <v>1.02</v>
+      </c>
+      <c r="F24">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>0.66</v>
+      </c>
+      <c r="E25">
+        <v>0.37</v>
+      </c>
+      <c r="F25">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>0.84</v>
+      </c>
+      <c r="E26">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F26">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>1.53</v>
+      </c>
+      <c r="E27">
+        <v>0.63</v>
+      </c>
+      <c r="F27">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/redo-figures.xlsx
+++ b/redo-figures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eptmp/Documents/GitHub/CVDMVMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF8CC49-562B-BD44-BF69-9D7CF29AB7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE870A08-B15C-5E41-A618-2F165333F346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="3360" windowWidth="20560" windowHeight="15420" activeTab="2" xr2:uid="{BC31350E-D241-C943-934F-2A7C91B8C96E}"/>
   </bookViews>
@@ -1501,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F490F-9AA7-5D4C-B633-7FA81F50972D}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2061,6 +2061,15 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
+      <c r="D28">
+        <v>0.84</v>
+      </c>
+      <c r="E28">
+        <v>0.64</v>
+      </c>
+      <c r="F28">
+        <v>1.0900000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -2072,6 +2081,15 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
+      <c r="D29">
+        <v>1.38</v>
+      </c>
+      <c r="E29">
+        <v>1.17</v>
+      </c>
+      <c r="F29">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2083,6 +2101,15 @@
       <c r="C30" t="s">
         <v>6</v>
       </c>
+      <c r="D30">
+        <v>1.79</v>
+      </c>
+      <c r="E30">
+        <v>1.38</v>
+      </c>
+      <c r="F30">
+        <v>2.31</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2094,6 +2121,15 @@
       <c r="C31" t="s">
         <v>6</v>
       </c>
+      <c r="D31">
+        <v>2.86</v>
+      </c>
+      <c r="E31">
+        <v>2.11</v>
+      </c>
+      <c r="F31">
+        <v>3.86</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2105,8 +2141,17 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>1.47</v>
+      </c>
+      <c r="E32">
+        <v>1.21</v>
+      </c>
+      <c r="F32">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -2116,8 +2161,17 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>0.83</v>
+      </c>
+      <c r="E33">
+        <v>0.73</v>
+      </c>
+      <c r="F33">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -2127,8 +2181,17 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>1.25</v>
+      </c>
+      <c r="E34">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F34">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -2138,8 +2201,17 @@
       <c r="C35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>0.92</v>
+      </c>
+      <c r="E35">
+        <v>0.4</v>
+      </c>
+      <c r="F35">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -2149,8 +2221,17 @@
       <c r="C36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>1.08</v>
+      </c>
+      <c r="E36">
+        <v>0.92</v>
+      </c>
+      <c r="F36">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -2160,8 +2241,17 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>1.34</v>
+      </c>
+      <c r="E37">
+        <v>0.97</v>
+      </c>
+      <c r="F37">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -2171,8 +2261,17 @@
       <c r="C38" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>0.82</v>
+      </c>
+      <c r="E38">
+        <v>0.38</v>
+      </c>
+      <c r="F38">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>28</v>
       </c>
@@ -2182,8 +2281,17 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E39">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F39">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -2193,8 +2301,17 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>0.91</v>
+      </c>
+      <c r="E40">
+        <v>0.41</v>
+      </c>
+      <c r="F40">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>25</v>
       </c>
@@ -2204,8 +2321,17 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>1.25</v>
+      </c>
+      <c r="E41">
+        <v>1.02</v>
+      </c>
+      <c r="F41">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>25</v>
       </c>
@@ -2215,8 +2341,17 @@
       <c r="C42" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E42">
+        <v>1.01</v>
+      </c>
+      <c r="F42">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -2226,8 +2361,17 @@
       <c r="C43" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>1.39</v>
+      </c>
+      <c r="E43">
+        <v>1.17</v>
+      </c>
+      <c r="F43">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>25</v>
       </c>
@@ -2237,8 +2381,17 @@
       <c r="C44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>1.3</v>
+      </c>
+      <c r="E44">
+        <v>1.04</v>
+      </c>
+      <c r="F44">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -2248,8 +2401,17 @@
       <c r="C45" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>1.04</v>
+      </c>
+      <c r="E45">
+        <v>0.9</v>
+      </c>
+      <c r="F45">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>25</v>
       </c>
@@ -2259,8 +2421,17 @@
       <c r="C46" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>0.91</v>
+      </c>
+      <c r="E46">
+        <v>0.83</v>
+      </c>
+      <c r="F46">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -2270,8 +2441,17 @@
       <c r="C47" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>0.96</v>
+      </c>
+      <c r="E47">
+        <v>0.87</v>
+      </c>
+      <c r="F47">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -2281,8 +2461,17 @@
       <c r="C48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>0.88</v>
+      </c>
+      <c r="E48">
+        <v>0.45</v>
+      </c>
+      <c r="F48">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>25</v>
       </c>
@@ -2292,8 +2481,17 @@
       <c r="C49" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>0.97</v>
+      </c>
+      <c r="E49">
+        <v>0.85</v>
+      </c>
+      <c r="F49">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>25</v>
       </c>
@@ -2303,8 +2501,17 @@
       <c r="C50" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E50">
+        <v>0.85</v>
+      </c>
+      <c r="F50">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>25</v>
       </c>
@@ -2314,8 +2521,17 @@
       <c r="C51" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>0.95</v>
+      </c>
+      <c r="E51">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F51">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -2325,8 +2541,17 @@
       <c r="C52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>1.35</v>
+      </c>
+      <c r="E52">
+        <v>0.53</v>
+      </c>
+      <c r="F52">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>25</v>
       </c>
@@ -2335,6 +2560,15 @@
       </c>
       <c r="C53" t="s">
         <v>6</v>
+      </c>
+      <c r="D53">
+        <v>0.8</v>
+      </c>
+      <c r="E53">
+        <v>0.46</v>
+      </c>
+      <c r="F53">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>
